--- a/analysis/Experiment 3/c2_analysis_ranks.xlsx
+++ b/analysis/Experiment 3/c2_analysis_ranks.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="6990" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="6990"/>
   </bookViews>
   <sheets>
-    <sheet name="S-W-VW" sheetId="1" r:id="rId1"/>
-    <sheet name="S-W" sheetId="3" r:id="rId2"/>
-    <sheet name="S-VW" sheetId="2" r:id="rId3"/>
-    <sheet name="simrank" sheetId="12" r:id="rId4"/>
-    <sheet name="simrank (2)" sheetId="13" r:id="rId5"/>
-    <sheet name="W-VW" sheetId="4" r:id="rId6"/>
-    <sheet name="S+W-VW" sheetId="5" r:id="rId7"/>
-    <sheet name="Expectancy" sheetId="6" r:id="rId8"/>
-    <sheet name="ROC" sheetId="7" r:id="rId9"/>
-    <sheet name="C ROC" sheetId="9" r:id="rId10"/>
-    <sheet name="NC ROC" sheetId="8" r:id="rId11"/>
+    <sheet name="Experiment 1" sheetId="14" r:id="rId1"/>
+    <sheet name="S-W-VW" sheetId="1" r:id="rId2"/>
+    <sheet name="S-W" sheetId="3" r:id="rId3"/>
+    <sheet name="S-VW" sheetId="2" r:id="rId4"/>
+    <sheet name="simrank" sheetId="12" r:id="rId5"/>
+    <sheet name="simrank (2)" sheetId="13" r:id="rId6"/>
+    <sheet name="W-VW" sheetId="4" r:id="rId7"/>
+    <sheet name="S+W-VW" sheetId="5" r:id="rId8"/>
+    <sheet name="Expectancy" sheetId="6" r:id="rId9"/>
+    <sheet name="ROC" sheetId="7" r:id="rId10"/>
+    <sheet name="C ROC" sheetId="9" r:id="rId11"/>
+    <sheet name="NC ROC" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="37">
   <si>
     <t>Strong</t>
   </si>
@@ -107,12 +108,51 @@
   <si>
     <t>Gsq</t>
   </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Expectation</t>
+  </si>
+  <si>
+    <t>Rank 1</t>
+  </si>
+  <si>
+    <t>Rank 2</t>
+  </si>
+  <si>
+    <t>Rank 3</t>
+  </si>
+  <si>
+    <t>Rank 4</t>
+  </si>
+  <si>
+    <t>Rank 5</t>
+  </si>
+  <si>
+    <t>Rank 6</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>ChiSquare</t>
+  </si>
+  <si>
+    <t>Gsquare</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +169,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,10 +206,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -167,9 +223,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5822,624 +5881,872 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="5">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>99</v>
+      </c>
+      <c r="D2">
+        <v>34</v>
+      </c>
+      <c r="E2">
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <v>44</v>
+      </c>
+      <c r="G2">
+        <v>45</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <f>SUM(C2:H2)</f>
+        <v>261</v>
+      </c>
+      <c r="J2">
+        <f>SUM(I2:I3)</f>
+        <v>524</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2">
+        <v>122</v>
+      </c>
+      <c r="T2">
+        <v>29</v>
+      </c>
+      <c r="U2">
+        <v>37</v>
+      </c>
+      <c r="V2">
+        <v>37</v>
+      </c>
+      <c r="W2">
+        <v>30</v>
+      </c>
+      <c r="X2">
+        <v>8</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2:Y3" si="0">SUM(S2:X2)</f>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>122</v>
+      </c>
+      <c r="D3">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <v>37</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I5" si="1">SUM(C3:H3)</f>
+        <v>263</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>190</v>
+      </c>
+      <c r="T3">
+        <v>17</v>
+      </c>
+      <c r="U3">
+        <v>8</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>215</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>258</v>
+      </c>
+      <c r="J4">
+        <f>SUM(I4:I5)</f>
+        <v>488</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="Y4">
+        <f>SUM(Y2:Y3)</f>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>190</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f>SUM(I2:I5)</f>
+        <v>1012</v>
+      </c>
+      <c r="S6" s="6">
+        <f>S2/$Y$4</f>
+        <v>0.24746450304259635</v>
+      </c>
+      <c r="T6" s="6">
+        <f t="shared" ref="T6:X7" si="2">T2/$Y$4</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="U6" s="6">
+        <f t="shared" si="2"/>
+        <v>7.5050709939148072E-2</v>
+      </c>
+      <c r="V6" s="6">
+        <f t="shared" si="2"/>
+        <v>7.5050709939148072E-2</v>
+      </c>
+      <c r="W6" s="6">
+        <f t="shared" si="2"/>
+        <v>6.0851926977687626E-2</v>
+      </c>
+      <c r="X6" s="6">
+        <f t="shared" si="2"/>
+        <v>1.6227180527383367E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="str">
+        <f>INDEX($C1:$H1,1,$C$8)</f>
+        <v>Rank 2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="6">
+        <f>S3/$Y$4</f>
+        <v>0.38539553752535499</v>
+      </c>
+      <c r="T7" s="6">
+        <f t="shared" si="2"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="U7" s="6">
+        <f t="shared" si="2"/>
+        <v>1.6227180527383367E-2</v>
+      </c>
+      <c r="V7" s="6">
+        <f t="shared" si="2"/>
+        <v>8.1135902636916835E-3</v>
+      </c>
+      <c r="W7" s="6">
+        <f t="shared" si="2"/>
+        <v>2.0283975659229209E-2</v>
+      </c>
+      <c r="X7" s="6">
+        <f t="shared" si="2"/>
+        <v>2.0283975659229209E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>D8/F8</f>
+        <v>0.20987654320987653</v>
+      </c>
+      <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <f>IF($A$1=1,ROC!C2,IF($A$1=2,'C ROC'!C2,'NC ROC'!C2))</f>
-        <v>363</v>
-      </c>
-      <c r="C2">
-        <f>IF($A$1=1,ROC!D2,IF($A$1=2,'C ROC'!D2,'NC ROC'!D2))</f>
-        <v>118</v>
-      </c>
-      <c r="D2">
-        <f>IF($A$1=1,ROC!E2,IF($A$1=2,'C ROC'!E2,'NC ROC'!E2))</f>
-        <v>55</v>
-      </c>
-      <c r="E2">
-        <f>IF($A$1=1,ROC!F2,IF($A$1=2,'C ROC'!F2,'NC ROC'!F2))</f>
-        <v>50</v>
-      </c>
-      <c r="F2">
-        <f>IF($A$1=1,ROC!G2,IF($A$1=2,'C ROC'!G2,'NC ROC'!G2))</f>
-        <v>46</v>
-      </c>
-      <c r="G2">
-        <f>IF($A$1=1,ROC!H2,IF($A$1=2,'C ROC'!H2,'NC ROC'!H2))</f>
-        <v>49</v>
-      </c>
-      <c r="H2">
-        <f>IF($A$1=1,ROC!I2,IF($A$1=2,'C ROC'!I2,'NC ROC'!I2))</f>
-        <v>28</v>
-      </c>
-      <c r="I2">
-        <f>IF($A$1=1,ROC!J2,IF($A$1=2,'C ROC'!J2,'NC ROC'!J2))</f>
-        <v>13</v>
-      </c>
-      <c r="J2">
-        <f>SUM(B2:I2)</f>
-        <v>722</v>
-      </c>
-      <c r="L2">
-        <f>B2/J2</f>
-        <v>0.50277008310249305</v>
-      </c>
-      <c r="N2" t="str">
-        <f>IF(A1=1,"ALL",IF(A1=2,"CHOOSE","NO CHOOSE"))</f>
-        <v>ALL</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <f>IF($A$1=1,ROC!C3,IF($A$1=2,'C ROC'!C3,'NC ROC'!C3))</f>
-        <v>265</v>
-      </c>
-      <c r="C3">
-        <f>IF($A$1=1,ROC!D3,IF($A$1=2,'C ROC'!D3,'NC ROC'!D3))</f>
-        <v>122</v>
-      </c>
-      <c r="D3">
-        <f>IF($A$1=1,ROC!E3,IF($A$1=2,'C ROC'!E3,'NC ROC'!E3))</f>
-        <v>56</v>
-      </c>
-      <c r="E3">
-        <f>IF($A$1=1,ROC!F3,IF($A$1=2,'C ROC'!F3,'NC ROC'!F3))</f>
-        <v>65</v>
-      </c>
-      <c r="F3">
-        <f>IF($A$1=1,ROC!G3,IF($A$1=2,'C ROC'!G3,'NC ROC'!G3))</f>
-        <v>52</v>
-      </c>
-      <c r="G3">
-        <f>IF($A$1=1,ROC!H3,IF($A$1=2,'C ROC'!H3,'NC ROC'!H3))</f>
-        <v>46</v>
-      </c>
-      <c r="H3">
-        <f>IF($A$1=1,ROC!I3,IF($A$1=2,'C ROC'!I3,'NC ROC'!I3))</f>
-        <v>28</v>
-      </c>
-      <c r="I3">
-        <f>IF($A$1=1,ROC!J3,IF($A$1=2,'C ROC'!J3,'NC ROC'!J3))</f>
-        <v>19</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J5" si="0">SUM(B3:I3)</f>
-        <v>653</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L4" si="1">B3/J3</f>
-        <v>0.40581929555895863</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f>IF($A$1=1,ROC!C4,IF($A$1=2,'C ROC'!C4,'NC ROC'!C4))</f>
-        <v>224</v>
-      </c>
-      <c r="C4">
-        <f>IF($A$1=1,ROC!D4,IF($A$1=2,'C ROC'!D4,'NC ROC'!D4))</f>
-        <v>95</v>
-      </c>
-      <c r="D4">
-        <f>IF($A$1=1,ROC!E4,IF($A$1=2,'C ROC'!E4,'NC ROC'!E4))</f>
-        <v>63</v>
-      </c>
-      <c r="E4">
-        <f>IF($A$1=1,ROC!F4,IF($A$1=2,'C ROC'!F4,'NC ROC'!F4))</f>
-        <v>56</v>
-      </c>
-      <c r="F4">
-        <f>IF($A$1=1,ROC!G4,IF($A$1=2,'C ROC'!G4,'NC ROC'!G4))</f>
-        <v>56</v>
-      </c>
-      <c r="G4">
-        <f>IF($A$1=1,ROC!H4,IF($A$1=2,'C ROC'!H4,'NC ROC'!H4))</f>
-        <v>75</v>
-      </c>
-      <c r="H4">
-        <f>IF($A$1=1,ROC!I4,IF($A$1=2,'C ROC'!I4,'NC ROC'!I4))</f>
-        <v>39</v>
-      </c>
-      <c r="I4">
-        <f>IF($A$1=1,ROC!J4,IF($A$1=2,'C ROC'!J4,'NC ROC'!J4))</f>
-        <v>43</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>651</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
-        <v>0.34408602150537637</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <f>SUM(B2:B4)</f>
-        <v>852</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:I5" si="2">SUM(C2:C4)</f>
-        <v>335</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="2"/>
-        <v>174</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>171</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>154</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>170</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <f>INDEX($B2:$I2,1,$B$7)</f>
-        <v>118</v>
-      </c>
-      <c r="C8">
-        <f>SUM(INDEX($B2:$I2,1,$B$7+1):INDEX($B2:$I2,1,8))</f>
-        <v>241</v>
-      </c>
       <c r="D8">
-        <f>SUM(B8:C8)</f>
-        <v>359</v>
-      </c>
-      <c r="F8">
-        <f>B$11*$D8/$D$11</f>
-        <v>102.44037478705282</v>
-      </c>
-      <c r="G8">
-        <f>C$11*$D8/$D$11</f>
-        <v>256.5596252129472</v>
+        <f>INDEX($C2:$H2,1,$C$8)</f>
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <f>SUM(INDEX($C2:$H2,1,$C$8+1):INDEX($C2:$H2,1,6))</f>
+        <v>128</v>
+      </c>
+      <c r="F8" s="7">
+        <f>SUM(D8:E8)</f>
+        <v>162</v>
+      </c>
+      <c r="H8">
+        <f>D$12*$F8/$F$12</f>
+        <v>44.067357512953365</v>
       </c>
       <c r="I8">
-        <f>2*B8*LN(B8/F8)</f>
-        <v>33.37127427152523</v>
-      </c>
-      <c r="J8">
-        <f>2*C8*LN(C8/G8)</f>
-        <v>-30.155925639011983</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
+        <f>E$12*$F8/$F$12</f>
+        <v>117.93264248704664</v>
+      </c>
+      <c r="K8">
+        <f>(D8-H8)^2/H8</f>
+        <v>2.2999265899668879</v>
+      </c>
+      <c r="L8">
+        <f>(E8-I8)^2/I8</f>
+        <v>0.85940317418691536</v>
+      </c>
+      <c r="N8">
+        <f>IF(D8&gt;0,D8*LN(D8/H8),0)</f>
+        <v>-8.8181989045031131</v>
+      </c>
+      <c r="O8">
+        <f>IF(E8&gt;0,E8*LN(E8/I8),0)</f>
+        <v>10.485328488744718</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9">
-        <f t="shared" ref="B9:B10" si="3">INDEX($B3:$I3,1,$B$7)</f>
-        <v>122</v>
-      </c>
-      <c r="C9">
-        <f>SUM(INDEX($B3:$I3,1,$B$7+1):INDEX($B3:$I3,1,8))</f>
-        <v>266</v>
+        <f t="shared" ref="B9:B11" si="3">D9/F9</f>
+        <v>0.20567375886524822</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:D10" si="4">SUM(B9:C9)</f>
-        <v>388</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ref="F9:F10" si="5">B$11*$D9/$D$11</f>
-        <v>110.71550255536627</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ref="G9:G10" si="6">C$11*$D9/$D$11</f>
-        <v>277.28449744463376</v>
+        <f t="shared" ref="D9:D11" si="4">INDEX($C3:$H3,1,$C$8)</f>
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <f>SUM(INDEX($C3:$H3,1,$C$8+1):INDEX($C3:$H3,1,6))</f>
+        <v>112</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" ref="F9:F12" si="5">SUM(D9:E9)</f>
+        <v>141</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:I11" si="6">D$12*$F9/$F$12</f>
+        <v>38.354922279792746</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9:I10" si="7">2*B9*LN(B9/F9)</f>
-        <v>23.681950376201858</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ref="J9:J10" si="8">2*C9*LN(C9/G9)</f>
-        <v>-22.10339604183309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>102.64507772020725</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:L11" si="7">(D9-H9)^2/H9</f>
+        <v>2.2817037725316855</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>0.85259393635525615</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:O11" si="8">IF(D9&gt;0,D9*LN(D9/H9),0)</f>
+        <v>-8.108024191447214</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="8"/>
+        <v>9.7688282773772812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="C10">
-        <f>SUM(INDEX($B4:$I4,1,$B$7+1):INDEX($B4:$I4,1,8))</f>
-        <v>332</v>
+        <v>0.58139534883720934</v>
       </c>
       <c r="D10">
         <f t="shared" si="4"/>
-        <v>427</v>
-      </c>
-      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <f>SUM(INDEX($C4:$H4,1,$C$8+1):INDEX($C4:$H4,1,6))</f>
+        <v>18</v>
+      </c>
+      <c r="F10" s="7">
         <f t="shared" si="5"/>
-        <v>121.84412265758093</v>
-      </c>
-      <c r="G10">
+        <v>43</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="6"/>
-        <v>305.1558773424191</v>
+        <v>11.696891191709845</v>
       </c>
       <c r="I10">
+        <f t="shared" si="6"/>
+        <v>31.303108808290155</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="7"/>
-        <v>-47.284474082370615</v>
-      </c>
-      <c r="J10">
+        <v>15.129892299129555</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="7"/>
+        <v>5.6535184747637128</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="8"/>
-        <v>55.983333740176498</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>18.988818212048646</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="8"/>
+        <v>-9.9602218379936289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11">
-        <f>SUM(B8:B10)</f>
-        <v>335</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ref="C11:D11" si="9">SUM(C8:C10)</f>
-        <v>839</v>
+        <f t="shared" si="3"/>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D11">
-        <f t="shared" si="9"/>
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12">
-        <f>SUM(I8:J10)</f>
-        <v>13.492762624687899</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <f>B8/D8</f>
-        <v>0.32869080779944287</v>
-      </c>
-      <c r="H13" t="s">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <f>SUM(INDEX($C5:$H5,1,$C$8+1):INDEX($C5:$H5,1,6))</f>
+        <v>23</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="6"/>
+        <v>10.880829015544041</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="6"/>
+        <v>29.119170984455959</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="7"/>
+        <v>3.4413052060202327</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="7"/>
+        <v>1.2858969631036457</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="8"/>
+        <v>7.5855854572429839</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="8"/>
+        <v>-5.4257583752351337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D12" s="7">
+        <f>SUM(D8:D11)</f>
+        <v>105</v>
+      </c>
+      <c r="E12" s="7">
+        <f>SUM(E8:E11)</f>
+        <v>281</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="5"/>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13">
+        <f>SUM(K8:L11)</f>
+        <v>31.804240416057894</v>
+      </c>
+      <c r="M13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13">
+        <f>2*SUM(N8:O11)</f>
+        <v>29.032714252469077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
         <v>6</v>
       </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ref="B14:B15" si="10">B9/D9</f>
-        <v>0.31443298969072164</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
         <v>7</v>
       </c>
-      <c r="I14">
-        <f>CHIDIST(I12,I13)</f>
-        <v>1.1751243439532899E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="K15">
+        <f>CHIDIST(K13,K14)</f>
+        <v>5.7549586296564737E-7</v>
+      </c>
+      <c r="M15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15">
+        <f>CHIDIST(N13,N14)</f>
+        <v>2.2042607229100859E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <f>SUM(D8:D9)</f>
+        <v>63</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E8:E9)</f>
+        <v>240</v>
+      </c>
+      <c r="F17" s="7">
+        <f>SUM(D17:E17)</f>
+        <v>303</v>
+      </c>
+      <c r="H17">
+        <f>D$19*$F17/$F$19</f>
+        <v>82.42227979274611</v>
+      </c>
+      <c r="I17">
+        <f>E$19*$F17/$F$19</f>
+        <v>220.57772020725389</v>
+      </c>
+      <c r="K17">
+        <f>(D17-H17)^2/H17</f>
+        <v>4.5767352382906674</v>
+      </c>
+      <c r="L17">
+        <f>(E17-I17)^2/I17</f>
+        <v>1.7101679716032741</v>
+      </c>
+      <c r="N17">
+        <f>IF(D17&gt;0,D17*LN(D17/H17),0)</f>
+        <v>-16.929426768063326</v>
+      </c>
+      <c r="O17">
+        <f>IF(E17&gt;0,E17*LN(E17/I17),0)</f>
+        <v>20.25331631128973</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D10:D11)</f>
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <f>SUM(E10:E11)</f>
+        <v>41</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" ref="F18" si="9">SUM(D18:E18)</f>
+        <v>83</v>
+      </c>
+      <c r="H18">
+        <f>D$19*$F18/$F$19</f>
+        <v>22.577720207253886</v>
+      </c>
+      <c r="I18">
+        <f>E$19*$F18/$F$19</f>
+        <v>60.422279792746117</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:L18" si="10">(D18-H18)^2/H18</f>
+        <v>16.707840689181594</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="10"/>
+        <v>6.2431433180215956</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18:O18" si="11">IF(D18&gt;0,D18*LN(D18/H18),0)</f>
+        <v>26.069653251351269</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="11"/>
+        <v>-15.899219479409405</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D19" s="7">
+        <f>SUM(D17:D18)</f>
+        <v>105</v>
+      </c>
+      <c r="E19" s="7">
+        <f>SUM(E17:E18)</f>
+        <v>281</v>
+      </c>
+      <c r="F19" s="7">
+        <f>SUM(F17:F18)</f>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20">
+        <f>SUM(K17:L19)</f>
+        <v>29.237887217097132</v>
+      </c>
+      <c r="M20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20">
+        <f>2*SUM(N17:O19)</f>
+        <v>26.988646630336536</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21">
         <v>1</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="10"/>
-        <v>0.22248243559718969</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <f>B$5*$J2/$J$5</f>
-        <v>303.6248766041461</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:I17" si="11">C$5*$J2/$J$5</f>
-        <v>119.38302073050346</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="11"/>
-        <v>62.007897334649556</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="11"/>
-        <v>60.938795656465942</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="11"/>
-        <v>54.880552813425467</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="11"/>
-        <v>60.58242843040474</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="11"/>
-        <v>33.854886475814411</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="11"/>
-        <v>26.727541954590325</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <f t="shared" ref="B18:I18" si="12">B$5*$J3/$J$5</f>
-        <v>274.6080947680158</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="12"/>
-        <v>107.97384007897335</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="12"/>
-        <v>56.081934846989142</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="12"/>
-        <v>55.115004935834158</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="12"/>
-        <v>49.635735439289242</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="12"/>
-        <v>54.792694965449158</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="12"/>
-        <v>30.619447186574533</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="12"/>
-        <v>24.173247778874629</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <f t="shared" ref="B19:I19" si="13">B$5*$J4/$J$5</f>
-        <v>273.7670286278381</v>
-      </c>
-      <c r="C19">
+      <c r="M21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <f>CHIDIST(K20,K21)</f>
+        <v>6.401515491927248E-8</v>
+      </c>
+      <c r="M22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22">
+        <f>CHIDIST(N20,N21)</f>
+        <v>2.0465401218603993E-7</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <f>SUM(D8,D10)</f>
+        <v>59</v>
+      </c>
+      <c r="E24">
+        <f>SUM(E8,E10)</f>
+        <v>146</v>
+      </c>
+      <c r="F24" s="7">
+        <f>SUM(D24:E24)</f>
+        <v>205</v>
+      </c>
+      <c r="H24">
+        <f>D$19*$F24/$F$19</f>
+        <v>55.76424870466321</v>
+      </c>
+      <c r="I24">
+        <f>E$19*$F24/$F$19</f>
+        <v>149.2357512953368</v>
+      </c>
+      <c r="K24">
+        <f>(D24-H24)^2/H24</f>
+        <v>0.18775625402442064</v>
+      </c>
+      <c r="L24">
+        <f>(E24-I24)^2/I24</f>
+        <v>7.0158030863217979E-2</v>
+      </c>
+      <c r="N24">
+        <f>IF(D24&gt;0,D24*LN(D24/H24),0)</f>
+        <v>3.3278645604025145</v>
+      </c>
+      <c r="O24">
+        <f>IF(E24&gt;0,E24*LN(E24/I24),0)</f>
+        <v>-3.2004159656520526</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <f>SUM(D9,D11)</f>
+        <v>46</v>
+      </c>
+      <c r="E25">
+        <f>SUM(E9,E11)</f>
+        <v>135</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" ref="F25" si="12">SUM(D25:E25)</f>
+        <v>181</v>
+      </c>
+      <c r="H25">
+        <f>D$19*$F25/$F$19</f>
+        <v>49.23575129533679</v>
+      </c>
+      <c r="I25">
+        <f>E$19*$F25/$F$19</f>
+        <v>131.7642487046632</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25:L25" si="13">(D25-H25)^2/H25</f>
+        <v>0.2126521109116366</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="13"/>
-        <v>107.6431391905232</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="13"/>
-        <v>55.910167818361302</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="13"/>
-        <v>54.946199407699901</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="13"/>
-        <v>49.483711747285291</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="13"/>
-        <v>54.624876604146102</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="13"/>
-        <v>30.525666337611057</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="13"/>
-        <v>24.099210266535046</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <f>B2*LN(B2/B17)</f>
-        <v>64.835376766535518</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ref="C21:I21" si="14">C2*LN(C2/C17)</f>
-        <v>-1.3749786503447061</v>
-      </c>
-      <c r="D21">
+        <v>7.9460753187622579E-2</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25:O25" si="14">IF(D25&gt;0,D25*LN(D25/H25),0)</f>
+        <v>-3.1270163115934704</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="14"/>
-        <v>-6.5960712436440607</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="14"/>
-        <v>-9.8923502579355649</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="14"/>
-        <v>-8.1198123604016565</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="14"/>
-        <v>-10.3970450581678</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="14"/>
-        <v>-5.3166073942669643</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="14"/>
-        <v>-9.3696877320666268</v>
-      </c>
-      <c r="K21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21">
-        <f>2*SUM(B21:I23)</f>
-        <v>68.190660138766049</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <f t="shared" ref="B22:I22" si="15">B3*LN(B3/B18)</f>
-        <v>-9.4380135073874349</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="15"/>
-        <v>14.900112349727301</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="15"/>
-        <v>-8.1874965042202638E-2</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="15"/>
-        <v>10.72274248013637</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="15"/>
-        <v>2.4196989283997832</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="15"/>
-        <v>-8.0461123113325801</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="15"/>
-        <v>-2.5040631250079008</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="15"/>
-        <v>-4.5753439979157742</v>
-      </c>
-      <c r="K22" t="s">
+        <v>3.2751603859980016</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D26" s="7">
+        <f>SUM(D24:D25)</f>
+        <v>105</v>
+      </c>
+      <c r="E26" s="7">
+        <f>SUM(E24:E25)</f>
+        <v>281</v>
+      </c>
+      <c r="F26" s="7">
+        <f>SUM(F24:F25)</f>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27">
+        <f>SUM(K24:L26)</f>
+        <v>0.55002714898689775</v>
+      </c>
+      <c r="M27" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27">
+        <f>2*SUM(N24:O26)</f>
+        <v>0.55118533830998651</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
         <v>6</v>
       </c>
-      <c r="L22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <f t="shared" ref="B23:I23" si="16">B4*LN(B4/B19)</f>
-        <v>-44.941440851824481</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="16"/>
-        <v>-11.869736774324291</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="16"/>
-        <v>7.5214735959549763</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="16"/>
-        <v>1.0638419026227306</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="16"/>
-        <v>6.9276553316084524</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="16"/>
-        <v>23.774903931458109</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="16"/>
-        <v>9.5547580880374348</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="16"/>
-        <v>24.89790492456439</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
         <v>7</v>
       </c>
-      <c r="L23">
-        <f>CHIDIST(L21,L22)</f>
-        <v>4.0967934861596046E-9</v>
+      <c r="K29">
+        <f>CHIDIST(K27,K28)</f>
+        <v>0.458306601285145</v>
+      </c>
+      <c r="M29" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29">
+        <f>CHIDIST(N27,N28)</f>
+        <v>0.45783376965783451</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="6">
+        <f>D17/$F$19</f>
+        <v>0.16321243523316062</v>
+      </c>
+      <c r="E30" s="6">
+        <f>E17/$F$19</f>
+        <v>0.62176165803108807</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="6">
+        <f>D18/$F$19</f>
+        <v>0.10880829015544041</v>
+      </c>
+      <c r="E31" s="6">
+        <f>E18/$F$19</f>
+        <v>0.10621761658031088</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="6">
+        <f>D24/$F$19</f>
+        <v>0.15284974093264247</v>
+      </c>
+      <c r="E37" s="6">
+        <f>E24/$F$19</f>
+        <v>0.37823834196891193</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="6">
+        <f>D25/$F$19</f>
+        <v>0.11917098445595854</v>
+      </c>
+      <c r="E38" s="6">
+        <f>E25/$F$19</f>
+        <v>0.34974093264248707</v>
       </c>
     </row>
   </sheetData>
@@ -6448,6 +6755,766 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T7" sqref="T7:U8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>363</v>
+      </c>
+      <c r="D2">
+        <v>118</v>
+      </c>
+      <c r="E2">
+        <v>55</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>46</v>
+      </c>
+      <c r="H2">
+        <v>49</v>
+      </c>
+      <c r="I2">
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <f>SUM(C2:J2)</f>
+        <v>722</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>614</v>
+      </c>
+      <c r="U2">
+        <v>108</v>
+      </c>
+      <c r="V2">
+        <f>SUM(T2:U2)</f>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>265</v>
+      </c>
+      <c r="D3">
+        <v>122</v>
+      </c>
+      <c r="E3">
+        <v>56</v>
+      </c>
+      <c r="F3">
+        <v>65</v>
+      </c>
+      <c r="G3">
+        <v>52</v>
+      </c>
+      <c r="H3">
+        <v>46</v>
+      </c>
+      <c r="I3">
+        <v>28</v>
+      </c>
+      <c r="J3">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K5" si="0">SUM(C3:J3)</f>
+        <v>653</v>
+      </c>
+      <c r="S3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>478</v>
+      </c>
+      <c r="U3">
+        <v>175</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V5" si="1">SUM(T3:U3)</f>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>224</v>
+      </c>
+      <c r="D4">
+        <v>95</v>
+      </c>
+      <c r="E4">
+        <v>63</v>
+      </c>
+      <c r="F4">
+        <v>56</v>
+      </c>
+      <c r="G4">
+        <v>56</v>
+      </c>
+      <c r="H4">
+        <v>75</v>
+      </c>
+      <c r="I4">
+        <v>39</v>
+      </c>
+      <c r="J4">
+        <v>43</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>651</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>499</v>
+      </c>
+      <c r="U4">
+        <v>152</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f>SUM(C2:C4)</f>
+        <v>852</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:J5" si="2">SUM(D2:D4)</f>
+        <v>335</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="T5">
+        <f>SUM(T2:T4)</f>
+        <v>1591</v>
+      </c>
+      <c r="U5">
+        <f>SUM(U2:U4)</f>
+        <v>435</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="str">
+        <f>B2</f>
+        <v>Strong</v>
+      </c>
+      <c r="C7" s="4">
+        <f>C2/$K2</f>
+        <v>0.50277008310249305</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:J7" si="3">D2/$K2</f>
+        <v>0.16343490304709141</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="3"/>
+        <v>7.6177285318559551E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="3"/>
+        <v>6.9252077562326875E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="3"/>
+        <v>6.3711911357340723E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="3"/>
+        <v>6.7867036011080337E-2</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="3"/>
+        <v>3.8781163434903045E-2</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="3"/>
+        <v>1.8005540166204988E-2</v>
+      </c>
+      <c r="T7">
+        <f>T$5*$V2/$V$5</f>
+        <v>566.98025666337617</v>
+      </c>
+      <c r="U7">
+        <f>U$5*$V2/$V$5</f>
+        <v>155.01974333662389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B8" t="str">
+        <f t="shared" ref="B8:B9" si="4">B3</f>
+        <v>Weak</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" ref="C8:J8" si="5">C3/$K3</f>
+        <v>0.40581929555895863</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="5"/>
+        <v>0.18683001531393567</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="5"/>
+        <v>8.575803981623277E-2</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="5"/>
+        <v>9.9540581929555894E-2</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="5"/>
+        <v>7.9632465543644712E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="5"/>
+        <v>7.0444104134762639E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="5"/>
+        <v>4.2879019908116385E-2</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="5"/>
+        <v>2.9096477794793262E-2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ref="T8:U8" si="6">T$5*$V3/$V$5</f>
+        <v>512.79516288252717</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="6"/>
+        <v>140.20483711747286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
+        <f t="shared" si="4"/>
+        <v>Very Weak</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:J9" si="7">C4/$K4</f>
+        <v>0.34408602150537637</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="7"/>
+        <v>0.14592933947772657</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="7"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="7"/>
+        <v>8.6021505376344093E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="7"/>
+        <v>8.6021505376344093E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="7"/>
+        <v>0.1152073732718894</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="7"/>
+        <v>5.9907834101382486E-2</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="7"/>
+        <v>6.6052227342549924E-2</v>
+      </c>
+      <c r="T9">
+        <f t="shared" ref="T9:U9" si="8">T$5*$V4/$V$5</f>
+        <v>511.22458045409672</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="8"/>
+        <v>139.77541954590325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <f>C7</f>
+        <v>0.50277008310249305</v>
+      </c>
+      <c r="D11">
+        <f>C11+D7</f>
+        <v>0.66620498614958445</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:J11" si="9">D11+E7</f>
+        <v>0.74238227146814406</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="9"/>
+        <v>0.81163434903047094</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="9"/>
+        <v>0.87534626038781171</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="9"/>
+        <v>0.94321329639889206</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="9"/>
+        <v>0.98199445983379507</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <f t="shared" ref="T11:U13" si="10">2*T2*LN(T2/T7)</f>
+        <v>97.835307350493949</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="10"/>
+        <v>-78.066991738511007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f t="shared" ref="C12:C13" si="11">C8</f>
+        <v>0.40581929555895863</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:J12" si="12">C12+D8</f>
+        <v>0.5926493108728943</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="12"/>
+        <v>0.67840735068912705</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="12"/>
+        <v>0.77794793261868289</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="12"/>
+        <v>0.85758039816232756</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="12"/>
+        <v>0.92802450229709021</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="12"/>
+        <v>0.97090352220520659</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="12"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="10"/>
+        <v>-67.174047740311451</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="10"/>
+        <v>77.58852442845965</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f t="shared" si="11"/>
+        <v>0.34408602150537637</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:J13" si="13">C13+D9</f>
+        <v>0.49001536098310294</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="13"/>
+        <v>0.58678955453149007</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="13"/>
+        <v>0.67281105990783419</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="13"/>
+        <v>0.75883256528417831</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="13"/>
+        <v>0.87403993855606776</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="13"/>
+        <v>0.93394777265745021</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="10"/>
+        <v>-24.154484206236315</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="10"/>
+        <v>25.48843383672618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <f>(1-C7)/7</f>
+        <v>7.1032845271072426E-2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:J15" si="14">(1-D7)/7</f>
+        <v>0.11950929956470123</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="14"/>
+        <v>0.13197467352592004</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="14"/>
+        <v>0.1329639889196676</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="14"/>
+        <v>0.1337554412346656</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="14"/>
+        <v>0.1331618519984171</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="14"/>
+        <v>0.13731697665215672</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="14"/>
+        <v>0.14028492283339927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" ref="C16:J17" si="15">(1-C8)/7</f>
+        <v>8.4882957777291629E-2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="15"/>
+        <v>0.11616714066943776</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="15"/>
+        <v>0.13060599431196676</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="15"/>
+        <v>0.12863705972434916</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="15"/>
+        <v>0.13148107635090792</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="15"/>
+        <v>0.13279369940931962</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="15"/>
+        <v>0.13673156858455479</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="15"/>
+        <v>0.13870050317217239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" si="15"/>
+        <v>9.3701996927803372E-2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="15"/>
+        <v>0.12201009436032477</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="15"/>
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="15"/>
+        <v>0.13056835637480799</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="15"/>
+        <v>0.13056835637480799</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="15"/>
+        <v>0.12639894667544435</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="15"/>
+        <v>0.13429888084265965</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="15"/>
+        <v>0.13342111037963572</v>
+      </c>
+      <c r="S17" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <f>SUM(T11:U13)</f>
+        <v>31.516741930621006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
+        <v>6</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <f>C15</f>
+        <v>7.1032845271072426E-2</v>
+      </c>
+      <c r="D19">
+        <f>C19+D15</f>
+        <v>0.19054214483577364</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:J19" si="16">D19+E15</f>
+        <v>0.32251681836169366</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="16"/>
+        <v>0.45548080728136126</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="16"/>
+        <v>0.58923624851602685</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="16"/>
+        <v>0.72239810051444397</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="16"/>
+        <v>0.85971507716660067</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19">
+        <f>CHIDIST(T17,T18)</f>
+        <v>1.4329348527178669E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" ref="C20:C21" si="17">C16</f>
+        <v>8.4882957777291629E-2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:J20" si="18">C20+D16</f>
+        <v>0.20105009844672939</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="18"/>
+        <v>0.33165609275869612</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="18"/>
+        <v>0.46029315248304525</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="18"/>
+        <v>0.59177422883395314</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="18"/>
+        <v>0.72456792824327276</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="18"/>
+        <v>0.86129949682782758</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" si="17"/>
+        <v>9.3701996927803372E-2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:J21" si="19">C21+D17</f>
+        <v>0.21571209128812813</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="19"/>
+        <v>0.34474434935264425</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="19"/>
+        <v>0.47531270572745221</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="19"/>
+        <v>0.60588106210226023</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="19"/>
+        <v>0.73228000877770461</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="19"/>
+        <v>0.86657888962036422</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
@@ -7105,11 +8172,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+    <sheetView topLeftCell="G2" workbookViewId="0">
       <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
@@ -8212,6 +9279,633 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="5">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>IF($A$1=1,ROC!C2,IF($A$1=2,'C ROC'!C2,'NC ROC'!C2))</f>
+        <v>363</v>
+      </c>
+      <c r="C2">
+        <f>IF($A$1=1,ROC!D2,IF($A$1=2,'C ROC'!D2,'NC ROC'!D2))</f>
+        <v>118</v>
+      </c>
+      <c r="D2">
+        <f>IF($A$1=1,ROC!E2,IF($A$1=2,'C ROC'!E2,'NC ROC'!E2))</f>
+        <v>55</v>
+      </c>
+      <c r="E2">
+        <f>IF($A$1=1,ROC!F2,IF($A$1=2,'C ROC'!F2,'NC ROC'!F2))</f>
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <f>IF($A$1=1,ROC!G2,IF($A$1=2,'C ROC'!G2,'NC ROC'!G2))</f>
+        <v>46</v>
+      </c>
+      <c r="G2">
+        <f>IF($A$1=1,ROC!H2,IF($A$1=2,'C ROC'!H2,'NC ROC'!H2))</f>
+        <v>49</v>
+      </c>
+      <c r="H2">
+        <f>IF($A$1=1,ROC!I2,IF($A$1=2,'C ROC'!I2,'NC ROC'!I2))</f>
+        <v>28</v>
+      </c>
+      <c r="I2">
+        <f>IF($A$1=1,ROC!J2,IF($A$1=2,'C ROC'!J2,'NC ROC'!J2))</f>
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <f>SUM(B2:I2)</f>
+        <v>722</v>
+      </c>
+      <c r="L2">
+        <f>B2/J2</f>
+        <v>0.50277008310249305</v>
+      </c>
+      <c r="N2" t="str">
+        <f>IF(A1=1,"ALL",IF(A1=2,"CHOOSE","NO CHOOSE"))</f>
+        <v>ALL</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <f>IF($A$1=1,ROC!C3,IF($A$1=2,'C ROC'!C3,'NC ROC'!C3))</f>
+        <v>265</v>
+      </c>
+      <c r="C3">
+        <f>IF($A$1=1,ROC!D3,IF($A$1=2,'C ROC'!D3,'NC ROC'!D3))</f>
+        <v>122</v>
+      </c>
+      <c r="D3">
+        <f>IF($A$1=1,ROC!E3,IF($A$1=2,'C ROC'!E3,'NC ROC'!E3))</f>
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <f>IF($A$1=1,ROC!F3,IF($A$1=2,'C ROC'!F3,'NC ROC'!F3))</f>
+        <v>65</v>
+      </c>
+      <c r="F3">
+        <f>IF($A$1=1,ROC!G3,IF($A$1=2,'C ROC'!G3,'NC ROC'!G3))</f>
+        <v>52</v>
+      </c>
+      <c r="G3">
+        <f>IF($A$1=1,ROC!H3,IF($A$1=2,'C ROC'!H3,'NC ROC'!H3))</f>
+        <v>46</v>
+      </c>
+      <c r="H3">
+        <f>IF($A$1=1,ROC!I3,IF($A$1=2,'C ROC'!I3,'NC ROC'!I3))</f>
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <f>IF($A$1=1,ROC!J3,IF($A$1=2,'C ROC'!J3,'NC ROC'!J3))</f>
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J5" si="0">SUM(B3:I3)</f>
+        <v>653</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L4" si="1">B3/J3</f>
+        <v>0.40581929555895863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>IF($A$1=1,ROC!C4,IF($A$1=2,'C ROC'!C4,'NC ROC'!C4))</f>
+        <v>224</v>
+      </c>
+      <c r="C4">
+        <f>IF($A$1=1,ROC!D4,IF($A$1=2,'C ROC'!D4,'NC ROC'!D4))</f>
+        <v>95</v>
+      </c>
+      <c r="D4">
+        <f>IF($A$1=1,ROC!E4,IF($A$1=2,'C ROC'!E4,'NC ROC'!E4))</f>
+        <v>63</v>
+      </c>
+      <c r="E4">
+        <f>IF($A$1=1,ROC!F4,IF($A$1=2,'C ROC'!F4,'NC ROC'!F4))</f>
+        <v>56</v>
+      </c>
+      <c r="F4">
+        <f>IF($A$1=1,ROC!G4,IF($A$1=2,'C ROC'!G4,'NC ROC'!G4))</f>
+        <v>56</v>
+      </c>
+      <c r="G4">
+        <f>IF($A$1=1,ROC!H4,IF($A$1=2,'C ROC'!H4,'NC ROC'!H4))</f>
+        <v>75</v>
+      </c>
+      <c r="H4">
+        <f>IF($A$1=1,ROC!I4,IF($A$1=2,'C ROC'!I4,'NC ROC'!I4))</f>
+        <v>39</v>
+      </c>
+      <c r="I4">
+        <f>IF($A$1=1,ROC!J4,IF($A$1=2,'C ROC'!J4,'NC ROC'!J4))</f>
+        <v>43</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>651</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>0.34408602150537637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <f>SUM(B2:B4)</f>
+        <v>852</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:I5" si="2">SUM(C2:C4)</f>
+        <v>335</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <f>INDEX($B2:$I2,1,$B$7)</f>
+        <v>118</v>
+      </c>
+      <c r="C8">
+        <f>SUM(INDEX($B2:$I2,1,$B$7+1):INDEX($B2:$I2,1,8))</f>
+        <v>241</v>
+      </c>
+      <c r="D8">
+        <f>SUM(B8:C8)</f>
+        <v>359</v>
+      </c>
+      <c r="F8">
+        <f>B$11*$D8/$D$11</f>
+        <v>102.44037478705282</v>
+      </c>
+      <c r="G8">
+        <f>C$11*$D8/$D$11</f>
+        <v>256.5596252129472</v>
+      </c>
+      <c r="I8">
+        <f>2*B8*LN(B8/F8)</f>
+        <v>33.37127427152523</v>
+      </c>
+      <c r="J8">
+        <f>2*C8*LN(C8/G8)</f>
+        <v>-30.155925639011983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:B10" si="3">INDEX($B3:$I3,1,$B$7)</f>
+        <v>122</v>
+      </c>
+      <c r="C9">
+        <f>SUM(INDEX($B3:$I3,1,$B$7+1):INDEX($B3:$I3,1,8))</f>
+        <v>266</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D10" si="4">SUM(B9:C9)</f>
+        <v>388</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F10" si="5">B$11*$D9/$D$11</f>
+        <v>110.71550255536627</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G10" si="6">C$11*$D9/$D$11</f>
+        <v>277.28449744463376</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I10" si="7">2*B9*LN(B9/F9)</f>
+        <v>23.681950376201858</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:J10" si="8">2*C9*LN(C9/G9)</f>
+        <v>-22.10339604183309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="C10">
+        <f>SUM(INDEX($B4:$I4,1,$B$7+1):INDEX($B4:$I4,1,8))</f>
+        <v>332</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>427</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>121.84412265758093</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="6"/>
+        <v>305.1558773424191</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="7"/>
+        <v>-47.284474082370615</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="8"/>
+        <v>55.983333740176498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>SUM(B8:B10)</f>
+        <v>335</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:D11" si="9">SUM(C8:C10)</f>
+        <v>839</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="9"/>
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <f>SUM(I8:J10)</f>
+        <v>13.492762624687899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <f>B8/D8</f>
+        <v>0.32869080779944287</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:B15" si="10">B9/D9</f>
+        <v>0.31443298969072164</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <f>CHIDIST(I12,I13)</f>
+        <v>1.1751243439532899E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="10"/>
+        <v>0.22248243559718969</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>B$5*$J2/$J$5</f>
+        <v>303.6248766041461</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:I17" si="11">C$5*$J2/$J$5</f>
+        <v>119.38302073050346</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="11"/>
+        <v>62.007897334649556</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="11"/>
+        <v>60.938795656465942</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="11"/>
+        <v>54.880552813425467</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="11"/>
+        <v>60.58242843040474</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="11"/>
+        <v>33.854886475814411</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="11"/>
+        <v>26.727541954590325</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f t="shared" ref="B18:I18" si="12">B$5*$J3/$J$5</f>
+        <v>274.6080947680158</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="12"/>
+        <v>107.97384007897335</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="12"/>
+        <v>56.081934846989142</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="12"/>
+        <v>55.115004935834158</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="12"/>
+        <v>49.635735439289242</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="12"/>
+        <v>54.792694965449158</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="12"/>
+        <v>30.619447186574533</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="12"/>
+        <v>24.173247778874629</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f t="shared" ref="B19:I19" si="13">B$5*$J4/$J$5</f>
+        <v>273.7670286278381</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="13"/>
+        <v>107.6431391905232</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="13"/>
+        <v>55.910167818361302</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="13"/>
+        <v>54.946199407699901</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="13"/>
+        <v>49.483711747285291</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="13"/>
+        <v>54.624876604146102</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="13"/>
+        <v>30.525666337611057</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="13"/>
+        <v>24.099210266535046</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>B2*LN(B2/B17)</f>
+        <v>64.835376766535518</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:I21" si="14">C2*LN(C2/C17)</f>
+        <v>-1.3749786503447061</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="14"/>
+        <v>-6.5960712436440607</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="14"/>
+        <v>-9.8923502579355649</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="14"/>
+        <v>-8.1198123604016565</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="14"/>
+        <v>-10.3970450581678</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="14"/>
+        <v>-5.3166073942669643</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="14"/>
+        <v>-9.3696877320666268</v>
+      </c>
+      <c r="K21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21">
+        <f>2*SUM(B21:I23)</f>
+        <v>68.190660138766049</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" ref="B22:I22" si="15">B3*LN(B3/B18)</f>
+        <v>-9.4380135073874349</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="15"/>
+        <v>14.900112349727301</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="15"/>
+        <v>-8.1874965042202638E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="15"/>
+        <v>10.72274248013637</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="15"/>
+        <v>2.4196989283997832</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="15"/>
+        <v>-8.0461123113325801</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="15"/>
+        <v>-2.5040631250079008</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="15"/>
+        <v>-4.5753439979157742</v>
+      </c>
+      <c r="K22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" ref="B23:I23" si="16">B4*LN(B4/B19)</f>
+        <v>-44.941440851824481</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="16"/>
+        <v>-11.869736774324291</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="16"/>
+        <v>7.5214735959549763</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="16"/>
+        <v>1.0638419026227306</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="16"/>
+        <v>6.9276553316084524</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="16"/>
+        <v>23.774903931458109</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="16"/>
+        <v>9.5547580880374348</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="16"/>
+        <v>24.89790492456439</v>
+      </c>
+      <c r="K23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23">
+        <f>CHIDIST(L21,L22)</f>
+        <v>4.0967934861596046E-9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -8498,7 +10192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -8811,7 +10505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
@@ -9221,7 +10915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
@@ -9628,293 +11322,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>265</v>
-      </c>
-      <c r="C2" s="2">
-        <v>122</v>
-      </c>
-      <c r="D2" s="2">
-        <v>56</v>
-      </c>
-      <c r="E2" s="2">
-        <v>65</v>
-      </c>
-      <c r="F2" s="2">
-        <v>52</v>
-      </c>
-      <c r="G2" s="2">
-        <v>46</v>
-      </c>
-      <c r="H2" s="2">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2">
-        <f>SUM(B2:I2)</f>
-        <v>653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>224</v>
-      </c>
-      <c r="C3" s="3">
-        <v>95</v>
-      </c>
-      <c r="D3" s="3">
-        <v>63</v>
-      </c>
-      <c r="E3" s="3">
-        <v>56</v>
-      </c>
-      <c r="F3" s="3">
-        <v>56</v>
-      </c>
-      <c r="G3" s="3">
-        <v>75</v>
-      </c>
-      <c r="H3" s="3">
-        <v>39</v>
-      </c>
-      <c r="I3" s="3">
-        <v>43</v>
-      </c>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3" si="0">SUM(B3:I3)</f>
-        <v>651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" ref="B4:J4" si="1">SUM(B2:B3)</f>
-        <v>489</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="1"/>
-        <v>217</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" si="1"/>
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>A2</f>
-        <v>Weak</v>
-      </c>
-      <c r="B7">
-        <f>INDEX($B2:$I2,1,$B$6)</f>
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <f>SUM(INDEX($B2:$I2,1,$B$6+1):INDEX($B2:$I2,1,8))</f>
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <f>SUM(B7:C7)</f>
-        <v>47</v>
-      </c>
-      <c r="F7">
-        <f>B$9*$D7/$D$9</f>
-        <v>24.410852713178294</v>
-      </c>
-      <c r="G7">
-        <f>C$9*$D7/$D$9</f>
-        <v>22.589147286821706</v>
-      </c>
-      <c r="I7">
-        <f>2*B7*LN(B7/F7)</f>
-        <v>7.6818948324076848</v>
-      </c>
-      <c r="J7">
-        <f>2*C7*LN(C7/G7)</f>
-        <v>-6.5751629226274275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f>A3</f>
-        <v>Very Weak</v>
-      </c>
-      <c r="B8">
-        <f>INDEX($B3:$I3,1,$B$6)</f>
-        <v>39</v>
-      </c>
-      <c r="C8">
-        <f>SUM(INDEX($B3:$I3,1,$B$6+1):INDEX($B3:$I3,1,8))</f>
-        <v>43</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ref="D8" si="2">SUM(B8:C8)</f>
-        <v>82</v>
-      </c>
-      <c r="F8">
-        <f>B$9*$D8/$D$9</f>
-        <v>42.589147286821706</v>
-      </c>
-      <c r="G8">
-        <f>C$9*$D8/$D$9</f>
-        <v>39.410852713178294</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ref="I8:J8" si="3">2*B8*LN(B8/F8)</f>
-        <v>-6.8669496607842504</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
-        <v>7.4956643461465289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <f>SUM(B7:B8)</f>
-        <v>67</v>
-      </c>
-      <c r="C9">
-        <f>SUM(C7:C8)</f>
-        <v>62</v>
-      </c>
-      <c r="D9">
-        <f>SUM(D7:D8)</f>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <f>SUM(I7:J8)</f>
-        <v>1.7354465951425357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <f>B7/D7</f>
-        <v>0.5957446808510638</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <f>B8/D8</f>
-        <v>0.47560975609756095</v>
-      </c>
-      <c r="H12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12">
-        <f>CHIDIST(I10,I11)</f>
-        <v>0.18771680898399387</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9962,43 +11369,35 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
-        <f>SUM('S-W-VW'!B2:B3)</f>
-        <v>628</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2">
-        <f>SUM('S-W-VW'!C2:C3)</f>
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2">
-        <f>SUM('S-W-VW'!D2:D3)</f>
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2">
-        <f>SUM('S-W-VW'!E2:E3)</f>
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="F2" s="2">
-        <f>SUM('S-W-VW'!F2:F3)</f>
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2">
-        <f>SUM('S-W-VW'!G2:G3)</f>
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2">
-        <f>SUM('S-W-VW'!H2:H3)</f>
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2">
-        <f>SUM('S-W-VW'!I2:I3)</f>
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2">
         <f>SUM(B2:I2)</f>
-        <v>1375</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -10040,39 +11439,39 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ref="B4:J4" si="1">SUM(B2:B3)</f>
-        <v>852</v>
+        <v>489</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>335</v>
+        <v>217</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="1"/>
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="1"/>
-        <v>2026</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -10080,41 +11479,41 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>A2</f>
-        <v>Strong+Weak</v>
+        <v>Weak</v>
       </c>
       <c r="B7">
         <f>INDEX($B2:$I2,1,$B$6)</f>
-        <v>240</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <f>SUM(INDEX($B2:$I2,1,$B$6+1):INDEX($B2:$I2,1,8))</f>
-        <v>507</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <f>SUM(B7:C7)</f>
-        <v>747</v>
+        <v>47</v>
       </c>
       <c r="F7">
         <f>B$9*$D7/$D$9</f>
-        <v>213.15587734241907</v>
+        <v>24.410852713178294</v>
       </c>
       <c r="G7">
         <f>C$9*$D7/$D$9</f>
-        <v>533.8441226575809</v>
+        <v>22.589147286821706</v>
       </c>
       <c r="I7">
         <f>2*B7*LN(B7/F7)</f>
-        <v>56.935299250631701</v>
+        <v>7.6818948324076848</v>
       </c>
       <c r="J7">
         <f>2*C7*LN(C7/G7)</f>
-        <v>-52.31518804748967</v>
+        <v>-6.5751629226274275</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -10124,45 +11523,45 @@
       </c>
       <c r="B8">
         <f>INDEX($B3:$I3,1,$B$6)</f>
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <f>SUM(INDEX($B3:$I3,1,$B$6+1):INDEX($B3:$I3,1,8))</f>
-        <v>332</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8" si="2">SUM(B8:C8)</f>
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="F8">
         <f>B$9*$D8/$D$9</f>
-        <v>121.84412265758093</v>
+        <v>42.589147286821706</v>
       </c>
       <c r="G8">
         <f>C$9*$D8/$D$9</f>
-        <v>305.1558773424191</v>
+        <v>39.410852713178294</v>
       </c>
       <c r="I8">
         <f t="shared" ref="I8:J8" si="3">2*B8*LN(B8/F8)</f>
-        <v>-47.284474082370615</v>
+        <v>-6.8669496607842504</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>55.983333740176498</v>
+        <v>7.4956643461465289</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>SUM(B7:B8)</f>
-        <v>335</v>
+        <v>67</v>
       </c>
       <c r="C9">
         <f>SUM(C7:C8)</f>
-        <v>839</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <f>SUM(D7:D8)</f>
-        <v>1174</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -10174,7 +11573,7 @@
       </c>
       <c r="I10">
         <f>SUM(I7:J8)</f>
-        <v>13.318970860947914</v>
+        <v>1.7354465951425357</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -10183,7 +11582,7 @@
       </c>
       <c r="B11">
         <f>B7/D7</f>
-        <v>0.32128514056224899</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="H11" t="s">
         <v>6</v>
@@ -10198,14 +11597,14 @@
       </c>
       <c r="B12">
         <f>B8/D8</f>
-        <v>0.22248243559718969</v>
+        <v>0.47560975609756095</v>
       </c>
       <c r="H12" t="s">
         <v>7</v>
       </c>
       <c r="I12">
         <f>CHIDIST(I10,I11)</f>
-        <v>2.6273433944635675E-4</v>
+        <v>0.18771680898399387</v>
       </c>
     </row>
   </sheetData>
@@ -10214,6 +11613,301 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2">
+        <f>SUM('S-W-VW'!B2:B3)</f>
+        <v>628</v>
+      </c>
+      <c r="C2" s="2">
+        <f>SUM('S-W-VW'!C2:C3)</f>
+        <v>240</v>
+      </c>
+      <c r="D2" s="2">
+        <f>SUM('S-W-VW'!D2:D3)</f>
+        <v>111</v>
+      </c>
+      <c r="E2" s="2">
+        <f>SUM('S-W-VW'!E2:E3)</f>
+        <v>115</v>
+      </c>
+      <c r="F2" s="2">
+        <f>SUM('S-W-VW'!F2:F3)</f>
+        <v>98</v>
+      </c>
+      <c r="G2" s="2">
+        <f>SUM('S-W-VW'!G2:G3)</f>
+        <v>95</v>
+      </c>
+      <c r="H2" s="2">
+        <f>SUM('S-W-VW'!H2:H3)</f>
+        <v>56</v>
+      </c>
+      <c r="I2" s="2">
+        <f>SUM('S-W-VW'!I2:I3)</f>
+        <v>32</v>
+      </c>
+      <c r="J2" s="2">
+        <f>SUM(B2:I2)</f>
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>224</v>
+      </c>
+      <c r="C3" s="3">
+        <v>95</v>
+      </c>
+      <c r="D3" s="3">
+        <v>63</v>
+      </c>
+      <c r="E3" s="3">
+        <v>56</v>
+      </c>
+      <c r="F3" s="3">
+        <v>56</v>
+      </c>
+      <c r="G3" s="3">
+        <v>75</v>
+      </c>
+      <c r="H3" s="3">
+        <v>39</v>
+      </c>
+      <c r="I3" s="3">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3" si="0">SUM(B3:I3)</f>
+        <v>651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ref="B4:J4" si="1">SUM(B2:B3)</f>
+        <v>852</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="1"/>
+        <v>335</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>A2</f>
+        <v>Strong+Weak</v>
+      </c>
+      <c r="B7">
+        <f>INDEX($B2:$I2,1,$B$6)</f>
+        <v>240</v>
+      </c>
+      <c r="C7">
+        <f>SUM(INDEX($B2:$I2,1,$B$6+1):INDEX($B2:$I2,1,8))</f>
+        <v>507</v>
+      </c>
+      <c r="D7">
+        <f>SUM(B7:C7)</f>
+        <v>747</v>
+      </c>
+      <c r="F7">
+        <f>B$9*$D7/$D$9</f>
+        <v>213.15587734241907</v>
+      </c>
+      <c r="G7">
+        <f>C$9*$D7/$D$9</f>
+        <v>533.8441226575809</v>
+      </c>
+      <c r="I7">
+        <f>2*B7*LN(B7/F7)</f>
+        <v>56.935299250631701</v>
+      </c>
+      <c r="J7">
+        <f>2*C7*LN(C7/G7)</f>
+        <v>-52.31518804748967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>A3</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="B8">
+        <f>INDEX($B3:$I3,1,$B$6)</f>
+        <v>95</v>
+      </c>
+      <c r="C8">
+        <f>SUM(INDEX($B3:$I3,1,$B$6+1):INDEX($B3:$I3,1,8))</f>
+        <v>332</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8" si="2">SUM(B8:C8)</f>
+        <v>427</v>
+      </c>
+      <c r="F8">
+        <f>B$9*$D8/$D$9</f>
+        <v>121.84412265758093</v>
+      </c>
+      <c r="G8">
+        <f>C$9*$D8/$D$9</f>
+        <v>305.1558773424191</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:J8" si="3">2*B8*LN(B8/F8)</f>
+        <v>-47.284474082370615</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>55.983333740176498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>SUM(B7:B8)</f>
+        <v>335</v>
+      </c>
+      <c r="C9">
+        <f>SUM(C7:C8)</f>
+        <v>839</v>
+      </c>
+      <c r="D9">
+        <f>SUM(D7:D8)</f>
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <f>SUM(I7:J8)</f>
+        <v>13.318970860947914</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <f>B7/D7</f>
+        <v>0.32128514056224899</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f>B8/D8</f>
+        <v>0.22248243559718969</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <f>CHIDIST(I10,I11)</f>
+        <v>2.6273433944635675E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V27"/>
   <sheetViews>
@@ -11130,764 +12824,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T7" sqref="T7:U8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>7</v>
-      </c>
-      <c r="J1">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>363</v>
-      </c>
-      <c r="D2">
-        <v>118</v>
-      </c>
-      <c r="E2">
-        <v>55</v>
-      </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="G2">
-        <v>46</v>
-      </c>
-      <c r="H2">
-        <v>49</v>
-      </c>
-      <c r="I2">
-        <v>28</v>
-      </c>
-      <c r="J2">
-        <v>13</v>
-      </c>
-      <c r="K2">
-        <f>SUM(C2:J2)</f>
-        <v>722</v>
-      </c>
-      <c r="S2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>614</v>
-      </c>
-      <c r="U2">
-        <v>108</v>
-      </c>
-      <c r="V2">
-        <f>SUM(T2:U2)</f>
-        <v>722</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>265</v>
-      </c>
-      <c r="D3">
-        <v>122</v>
-      </c>
-      <c r="E3">
-        <v>56</v>
-      </c>
-      <c r="F3">
-        <v>65</v>
-      </c>
-      <c r="G3">
-        <v>52</v>
-      </c>
-      <c r="H3">
-        <v>46</v>
-      </c>
-      <c r="I3">
-        <v>28</v>
-      </c>
-      <c r="J3">
-        <v>19</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K5" si="0">SUM(C3:J3)</f>
-        <v>653</v>
-      </c>
-      <c r="S3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3">
-        <v>478</v>
-      </c>
-      <c r="U3">
-        <v>175</v>
-      </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V5" si="1">SUM(T3:U3)</f>
-        <v>653</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>224</v>
-      </c>
-      <c r="D4">
-        <v>95</v>
-      </c>
-      <c r="E4">
-        <v>63</v>
-      </c>
-      <c r="F4">
-        <v>56</v>
-      </c>
-      <c r="G4">
-        <v>56</v>
-      </c>
-      <c r="H4">
-        <v>75</v>
-      </c>
-      <c r="I4">
-        <v>39</v>
-      </c>
-      <c r="J4">
-        <v>43</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>651</v>
-      </c>
-      <c r="S4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>499</v>
-      </c>
-      <c r="U4">
-        <v>152</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="1"/>
-        <v>651</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <f>SUM(C2:C4)</f>
-        <v>852</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5:J5" si="2">SUM(D2:D4)</f>
-        <v>335</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>174</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>171</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>154</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>170</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>2026</v>
-      </c>
-      <c r="T5">
-        <f>SUM(T2:T4)</f>
-        <v>1591</v>
-      </c>
-      <c r="U5">
-        <f>SUM(U2:U4)</f>
-        <v>435</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="1"/>
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="str">
-        <f>B2</f>
-        <v>Strong</v>
-      </c>
-      <c r="C7" s="4">
-        <f>C2/$K2</f>
-        <v>0.50277008310249305</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" ref="D7:J7" si="3">D2/$K2</f>
-        <v>0.16343490304709141</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="3"/>
-        <v>7.6177285318559551E-2</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="3"/>
-        <v>6.9252077562326875E-2</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="3"/>
-        <v>6.3711911357340723E-2</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="3"/>
-        <v>6.7867036011080337E-2</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="3"/>
-        <v>3.8781163434903045E-2</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="3"/>
-        <v>1.8005540166204988E-2</v>
-      </c>
-      <c r="T7">
-        <f>T$5*$V2/$V$5</f>
-        <v>566.98025666337617</v>
-      </c>
-      <c r="U7">
-        <f>U$5*$V2/$V$5</f>
-        <v>155.01974333662389</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B8" t="str">
-        <f t="shared" ref="B8:B9" si="4">B3</f>
-        <v>Weak</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" ref="C8:J8" si="5">C3/$K3</f>
-        <v>0.40581929555895863</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="5"/>
-        <v>0.18683001531393567</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="5"/>
-        <v>8.575803981623277E-2</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="5"/>
-        <v>9.9540581929555894E-2</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="5"/>
-        <v>7.9632465543644712E-2</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="5"/>
-        <v>7.0444104134762639E-2</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="5"/>
-        <v>4.2879019908116385E-2</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="5"/>
-        <v>2.9096477794793262E-2</v>
-      </c>
-      <c r="T8">
-        <f t="shared" ref="T8:U8" si="6">T$5*$V3/$V$5</f>
-        <v>512.79516288252717</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="6"/>
-        <v>140.20483711747286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B9" t="str">
-        <f t="shared" si="4"/>
-        <v>Very Weak</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" ref="C9:J9" si="7">C4/$K4</f>
-        <v>0.34408602150537637</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="7"/>
-        <v>0.14592933947772657</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="7"/>
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="7"/>
-        <v>8.6021505376344093E-2</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="7"/>
-        <v>8.6021505376344093E-2</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="7"/>
-        <v>0.1152073732718894</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="7"/>
-        <v>5.9907834101382486E-2</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="7"/>
-        <v>6.6052227342549924E-2</v>
-      </c>
-      <c r="T9">
-        <f t="shared" ref="T9:U9" si="8">T$5*$V4/$V$5</f>
-        <v>511.22458045409672</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="8"/>
-        <v>139.77541954590325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <f>C7</f>
-        <v>0.50277008310249305</v>
-      </c>
-      <c r="D11">
-        <f>C11+D7</f>
-        <v>0.66620498614958445</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ref="E11:J11" si="9">D11+E7</f>
-        <v>0.74238227146814406</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="9"/>
-        <v>0.81163434903047094</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="9"/>
-        <v>0.87534626038781171</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="9"/>
-        <v>0.94321329639889206</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="9"/>
-        <v>0.98199445983379507</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <f t="shared" ref="T11:U13" si="10">2*T2*LN(T2/T7)</f>
-        <v>97.835307350493949</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="10"/>
-        <v>-78.066991738511007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <f t="shared" ref="C12:C13" si="11">C8</f>
-        <v>0.40581929555895863</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ref="D12:J12" si="12">C12+D8</f>
-        <v>0.5926493108728943</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="12"/>
-        <v>0.67840735068912705</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="12"/>
-        <v>0.77794793261868289</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="12"/>
-        <v>0.85758039816232756</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="12"/>
-        <v>0.92802450229709021</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="12"/>
-        <v>0.97090352220520659</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="12"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="10"/>
-        <v>-67.174047740311451</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="10"/>
-        <v>77.58852442845965</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <f t="shared" si="11"/>
-        <v>0.34408602150537637</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ref="D13:J13" si="13">C13+D9</f>
-        <v>0.49001536098310294</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="13"/>
-        <v>0.58678955453149007</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="13"/>
-        <v>0.67281105990783419</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="13"/>
-        <v>0.75883256528417831</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="13"/>
-        <v>0.87403993855606776</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="13"/>
-        <v>0.93394777265745021</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="13"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="10"/>
-        <v>-24.154484206236315</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="10"/>
-        <v>25.48843383672618</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <f>(1-C7)/7</f>
-        <v>7.1032845271072426E-2</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ref="D15:J15" si="14">(1-D7)/7</f>
-        <v>0.11950929956470123</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="14"/>
-        <v>0.13197467352592004</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="14"/>
-        <v>0.1329639889196676</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="14"/>
-        <v>0.1337554412346656</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="14"/>
-        <v>0.1331618519984171</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="14"/>
-        <v>0.13731697665215672</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="14"/>
-        <v>0.14028492283339927</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <f t="shared" ref="C16:J17" si="15">(1-C8)/7</f>
-        <v>8.4882957777291629E-2</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="15"/>
-        <v>0.11616714066943776</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="15"/>
-        <v>0.13060599431196676</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="15"/>
-        <v>0.12863705972434916</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="15"/>
-        <v>0.13148107635090792</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="15"/>
-        <v>0.13279369940931962</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="15"/>
-        <v>0.13673156858455479</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="15"/>
-        <v>0.13870050317217239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <f t="shared" si="15"/>
-        <v>9.3701996927803372E-2</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="15"/>
-        <v>0.12201009436032477</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="15"/>
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="15"/>
-        <v>0.13056835637480799</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="15"/>
-        <v>0.13056835637480799</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="15"/>
-        <v>0.12639894667544435</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="15"/>
-        <v>0.13429888084265965</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="15"/>
-        <v>0.13342111037963572</v>
-      </c>
-      <c r="S17" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17">
-        <f>SUM(T11:U13)</f>
-        <v>31.516741930621006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="S18" t="s">
-        <v>6</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19">
-        <f>C15</f>
-        <v>7.1032845271072426E-2</v>
-      </c>
-      <c r="D19">
-        <f>C19+D15</f>
-        <v>0.19054214483577364</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ref="E19:J19" si="16">D19+E15</f>
-        <v>0.32251681836169366</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="16"/>
-        <v>0.45548080728136126</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="16"/>
-        <v>0.58923624851602685</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="16"/>
-        <v>0.72239810051444397</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="16"/>
-        <v>0.85971507716660067</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="S19" t="s">
-        <v>7</v>
-      </c>
-      <c r="T19">
-        <f>CHIDIST(T17,T18)</f>
-        <v>1.4329348527178669E-7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <f t="shared" ref="C20:C21" si="17">C16</f>
-        <v>8.4882957777291629E-2</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ref="D20:J20" si="18">C20+D16</f>
-        <v>0.20105009844672939</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="18"/>
-        <v>0.33165609275869612</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="18"/>
-        <v>0.46029315248304525</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="18"/>
-        <v>0.59177422883395314</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="18"/>
-        <v>0.72456792824327276</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="18"/>
-        <v>0.86129949682782758</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <f t="shared" si="17"/>
-        <v>9.3701996927803372E-2</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ref="D21:J21" si="19">C21+D17</f>
-        <v>0.21571209128812813</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="19"/>
-        <v>0.34474434935264425</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="19"/>
-        <v>0.47531270572745221</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="19"/>
-        <v>0.60588106210226023</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="19"/>
-        <v>0.73228000877770461</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="19"/>
-        <v>0.86657888962036422</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>